--- a/实验8：工作量估计与统计分析/工作量统计表格.xlsx
+++ b/实验8：工作量估计与统计分析/工作量统计表格.xlsx
@@ -1,34 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22821"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20358"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="509" documentId="102_{0377CD5D-524A-49FD-8A41-DE9F0AFD7BEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{947B7284-65E0-4F98-812F-16529E8F5B40}"/>
+  <xr:revisionPtr revIDLastSave="578" documentId="102_{0377CD5D-524A-49FD-8A41-DE9F0AFD7BEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{5B3E19F7-207E-455E-8E50-2057CA927F64}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$E$120</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="176">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,9 +123,6 @@
     <t xml:space="preserve">   测试人员准备开始测试</t>
   </si>
   <si>
-    <t>李书缘,王元玮,王云杰,张延钊</t>
-  </si>
-  <si>
     <t xml:space="preserve">   项目第二次展示</t>
   </si>
   <si>
@@ -151,9 +143,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">   软件需求规格说明书撰写</t>
-  </si>
-  <si>
     <t xml:space="preserve">      引言部分</t>
   </si>
   <si>
@@ -634,6 +623,42 @@
   </si>
   <si>
     <t>ppt准备-实验8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭维泽,王元玮,王云杰,张延钊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭维泽，吕江枫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第八周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维护端开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>storage adapter开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信前端开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logic adapte 开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张延钊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -645,7 +670,7 @@
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -932,7 +957,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1215,25 +1240,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N119"/>
+  <dimension ref="A1:N124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D92" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M58" sqref="M58:M111"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E122" sqref="E122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.375" style="29" customWidth="1"/>
-    <col min="2" max="2" width="14.125" style="2" customWidth="1"/>
-    <col min="3" max="4" width="14.125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" style="2" customWidth="1"/>
+    <col min="3" max="4" width="14.109375" style="4" customWidth="1"/>
     <col min="5" max="5" width="24" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.625" style="3" customWidth="1"/>
-    <col min="7" max="13" width="8.75" style="1"/>
-    <col min="14" max="14" width="12.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="8.77734375" style="1"/>
+    <col min="14" max="14" width="12.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
@@ -1276,7 +1303,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75">
+    <row r="2" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>14</v>
       </c>
@@ -1294,7 +1321,7 @@
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>15</v>
       </c>
@@ -1314,7 +1341,7 @@
         <v>17</v>
       </c>
       <c r="G3" s="15">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H3" s="8">
         <v>1</v>
@@ -1336,10 +1363,10 @@
       </c>
       <c r="N3" s="15">
         <f>ROUND(TRIMMEAN(H3:M3,2/6),2)*G3</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>18</v>
       </c>
@@ -1359,7 +1386,7 @@
         <v>18</v>
       </c>
       <c r="G4" s="15">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H4" s="8">
         <v>1</v>
@@ -1381,10 +1408,10 @@
       </c>
       <c r="N4" s="15">
         <f t="shared" ref="N4:N67" si="0">ROUND(TRIMMEAN(H4:M4,2/6),2)*G4</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>19</v>
       </c>
@@ -1404,7 +1431,7 @@
         <v>19</v>
       </c>
       <c r="G5" s="15">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H5" s="8">
         <v>1</v>
@@ -1426,10 +1453,10 @@
       </c>
       <c r="N5" s="15">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>20</v>
       </c>
@@ -1449,7 +1476,7 @@
         <v>20</v>
       </c>
       <c r="G6" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H6" s="8">
         <v>1</v>
@@ -1471,10 +1498,10 @@
       </c>
       <c r="N6" s="15">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>21</v>
       </c>
@@ -1494,7 +1521,7 @@
         <v>21</v>
       </c>
       <c r="G7" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" s="8">
         <v>1</v>
@@ -1516,10 +1543,10 @@
       </c>
       <c r="N7" s="15">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>22</v>
       </c>
@@ -1564,7 +1591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
         <v>24</v>
       </c>
@@ -1587,7 +1614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
         <v>25</v>
       </c>
@@ -1605,7 +1632,7 @@
         <v>25</v>
       </c>
       <c r="G10" s="15">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H10" s="8">
         <v>1</v>
@@ -1627,10 +1654,10 @@
       </c>
       <c r="N10" s="15">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
         <v>26</v>
       </c>
@@ -1650,7 +1677,7 @@
         <v>26</v>
       </c>
       <c r="G11" s="15">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H11" s="8">
         <v>1</v>
@@ -1672,10 +1699,10 @@
       </c>
       <c r="N11" s="15">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
         <v>27</v>
       </c>
@@ -1689,13 +1716,13 @@
         <v>43904</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>16</v>
+        <v>167</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>27</v>
       </c>
       <c r="G12" s="15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H12" s="8">
         <v>1</v>
@@ -1717,10 +1744,10 @@
       </c>
       <c r="N12" s="15">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
         <v>28</v>
       </c>
@@ -1734,13 +1761,13 @@
         <v>43904</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>29</v>
+        <v>168</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>28</v>
       </c>
       <c r="G13" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13" s="8">
         <v>1</v>
@@ -1762,12 +1789,12 @@
       </c>
       <c r="N13" s="15">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" s="24">
         <v>0</v>
@@ -1779,10 +1806,10 @@
         <v>43910</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G14" s="15">
         <v>0</v>
@@ -1810,16 +1837,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" s="25"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
       <c r="E15" s="18"/>
       <c r="F15" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G15" s="17">
         <v>26</v>
@@ -1832,9 +1859,9 @@
       <c r="M15" s="8"/>
       <c r="N15" s="15"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" s="24">
         <v>6</v>
@@ -1847,10 +1874,10 @@
       </c>
       <c r="E16" s="18"/>
       <c r="F16" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G16" s="15">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H16" s="8">
         <v>1</v>
@@ -1872,27 +1899,21 @@
       </c>
       <c r="N16" s="15">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="25">
         <v>20</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
-      <c r="E17" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" s="17">
-        <v>20</v>
-      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="17"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
@@ -1901,9 +1922,9 @@
       <c r="M17" s="8"/>
       <c r="N17" s="15"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B18" s="24">
         <v>1</v>
@@ -1916,7 +1937,7 @@
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G18" s="15">
         <v>1</v>
@@ -1944,9 +1965,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B19" s="24">
         <v>2</v>
@@ -1958,10 +1979,10 @@
         <v>43914</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G19" s="15">
         <v>2</v>
@@ -1989,9 +2010,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B20" s="24">
         <v>2</v>
@@ -2006,7 +2027,7 @@
         <v>23</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G20" s="15">
         <v>2</v>
@@ -2034,9 +2055,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="31" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B21" s="24">
         <v>1</v>
@@ -2048,10 +2069,10 @@
         <v>43914</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G21" s="15">
         <v>1</v>
@@ -2079,9 +2100,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B22" s="24">
         <v>1</v>
@@ -2093,10 +2114,10 @@
         <v>43914</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G22" s="15">
         <v>1</v>
@@ -2124,9 +2145,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B23" s="24">
         <v>1</v>
@@ -2141,7 +2162,7 @@
         <v>23</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G23" s="15">
         <v>1</v>
@@ -2169,9 +2190,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B24" s="24">
         <v>1</v>
@@ -2186,7 +2207,7 @@
         <v>16</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G24" s="15">
         <v>1</v>
@@ -2214,9 +2235,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="31" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B25" s="24">
         <v>1</v>
@@ -2228,10 +2249,10 @@
         <v>43914</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G25" s="15">
         <v>1</v>
@@ -2259,9 +2280,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="31" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B26" s="24">
         <v>1</v>
@@ -2273,10 +2294,10 @@
         <v>43914</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G26" s="15">
         <v>1</v>
@@ -2304,9 +2325,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B27" s="24">
         <v>1</v>
@@ -2318,10 +2339,10 @@
         <v>43914</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G27" s="15">
         <v>1</v>
@@ -2349,9 +2370,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B28" s="25">
         <v>8</v>
@@ -2360,7 +2381,7 @@
       <c r="D28" s="16"/>
       <c r="E28" s="8"/>
       <c r="F28" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G28" s="17">
         <v>8</v>
@@ -2388,9 +2409,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B29" s="24">
         <v>1</v>
@@ -2402,10 +2423,10 @@
         <v>43914</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G29" s="15">
         <v>1</v>
@@ -2433,9 +2454,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="31" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B30" s="24">
         <v>1</v>
@@ -2447,10 +2468,10 @@
         <v>43914</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G30" s="15">
         <v>1</v>
@@ -2478,9 +2499,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="31" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B31" s="24">
         <v>1</v>
@@ -2492,10 +2513,10 @@
         <v>43914</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G31" s="15">
         <v>1</v>
@@ -2523,9 +2544,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B32" s="24">
         <v>1</v>
@@ -2537,10 +2558,10 @@
         <v>43914</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G32" s="15">
         <v>1</v>
@@ -2568,9 +2589,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="31" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B33" s="24">
         <v>1</v>
@@ -2582,10 +2603,10 @@
         <v>43914</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G33" s="15">
         <v>1</v>
@@ -2613,9 +2634,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B34" s="24">
         <v>1</v>
@@ -2630,7 +2651,7 @@
         <v>23</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G34" s="15">
         <v>1</v>
@@ -2658,9 +2679,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B35" s="24">
         <v>1</v>
@@ -2672,10 +2693,10 @@
         <v>43914</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G35" s="15">
         <v>1</v>
@@ -2703,9 +2724,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B36" s="24">
         <v>1</v>
@@ -2717,10 +2738,10 @@
         <v>43914</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G36" s="15">
         <v>1</v>
@@ -2748,9 +2769,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B37" s="25"/>
       <c r="C37" s="16"/>
@@ -2771,9 +2792,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="15.75">
+    <row r="38" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A38" s="31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B38" s="26">
         <v>6</v>
@@ -2788,10 +2809,10 @@
         <v>16</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G38" s="19">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H38" s="8">
         <v>1</v>
@@ -2813,12 +2834,12 @@
       </c>
       <c r="N38" s="15">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="15.75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A39" s="31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B39" s="24">
         <v>12</v>
@@ -2833,10 +2854,10 @@
         <v>16</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G39" s="15">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H39" s="8">
         <v>1</v>
@@ -2858,12 +2879,12 @@
       </c>
       <c r="N39" s="15">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="31" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B40" s="24">
         <v>1</v>
@@ -2875,10 +2896,10 @@
         <v>43918</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G40" s="15">
         <v>1</v>
@@ -2906,9 +2927,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="31" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B41" s="24">
         <v>1</v>
@@ -2920,10 +2941,10 @@
         <v>43918</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G41" s="15">
         <v>1</v>
@@ -2951,9 +2972,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B42" s="24">
         <v>1</v>
@@ -2968,7 +2989,7 @@
         <v>23</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G42" s="15">
         <v>1</v>
@@ -2996,9 +3017,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="31" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B43" s="24">
         <v>1</v>
@@ -3010,10 +3031,10 @@
         <v>43918</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G43" s="15">
         <v>1</v>
@@ -3041,9 +3062,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="15.75">
+    <row r="44" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A44" s="31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B44" s="24">
         <v>6</v>
@@ -3058,7 +3079,7 @@
         <v>16</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G44" s="15">
         <v>6</v>
@@ -3086,9 +3107,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B45" s="25"/>
       <c r="C45" s="16"/>
@@ -3104,9 +3125,9 @@
       <c r="M45" s="8"/>
       <c r="N45" s="15"/>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B46" s="24">
         <v>1</v>
@@ -3118,10 +3139,10 @@
         <v>43922</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F46" s="32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G46" s="8">
         <v>1</v>
@@ -3149,9 +3170,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="32" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B47" s="24">
         <v>1</v>
@@ -3163,10 +3184,10 @@
         <v>43922</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F47" s="32" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G47" s="8">
         <v>1</v>
@@ -3194,9 +3215,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B48" s="24">
         <v>1</v>
@@ -3208,10 +3229,10 @@
         <v>43922</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F48" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G48" s="8">
         <v>1</v>
@@ -3239,9 +3260,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="32" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B49" s="24">
         <v>1</v>
@@ -3253,10 +3274,10 @@
         <v>43922</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F49" s="32" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G49" s="8">
         <v>1</v>
@@ -3284,9 +3305,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B50" s="24">
         <v>1</v>
@@ -3298,10 +3319,10 @@
         <v>43922</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F50" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G50" s="8">
         <v>1</v>
@@ -3329,9 +3350,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B51" s="24">
         <v>3</v>
@@ -3346,7 +3367,7 @@
         <v>16</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G51" s="13">
         <v>3</v>
@@ -3374,9 +3395,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B52" s="24">
         <v>2</v>
@@ -3388,10 +3409,10 @@
         <v>43925</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G52" s="13">
         <v>2</v>
@@ -3419,9 +3440,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="33" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B53" s="24">
         <v>0.5</v>
@@ -3433,10 +3454,10 @@
         <v>43925</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G53" s="15">
         <v>1</v>
@@ -3464,9 +3485,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="11.65" customHeight="1">
+    <row r="54" spans="1:14" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="31" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B54" s="24">
         <v>1</v>
@@ -3478,10 +3499,10 @@
         <v>43928</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G54" s="15">
         <v>1</v>
@@ -3509,9 +3530,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="31" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B55" s="24">
         <v>1</v>
@@ -3523,10 +3544,10 @@
         <v>43928</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G55" s="15">
         <v>2</v>
@@ -3554,9 +3575,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="30" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B56" s="25"/>
       <c r="C56" s="14"/>
@@ -3572,9 +3593,9 @@
       <c r="M56" s="8"/>
       <c r="N56" s="15"/>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="34" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B57" s="25">
         <v>12</v>
@@ -3596,9 +3617,9 @@
       <c r="M57" s="8"/>
       <c r="N57" s="15"/>
     </row>
-    <row r="58" spans="1:14" ht="15.75">
+    <row r="58" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A58" s="33" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B58" s="24">
         <v>3</v>
@@ -3610,10 +3631,10 @@
         <v>43928</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G58" s="19">
         <v>3.5</v>
@@ -3641,9 +3662,9 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="15.75">
+    <row r="59" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A59" s="33" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B59" s="24">
         <v>3</v>
@@ -3655,10 +3676,10 @@
         <v>43928</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G59" s="19">
         <v>2</v>
@@ -3686,9 +3707,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="15.75">
+    <row r="60" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A60" s="33" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B60" s="24">
         <v>3</v>
@@ -3700,10 +3721,10 @@
         <v>43928</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G60" s="19">
         <v>2</v>
@@ -3731,9 +3752,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="15.75">
+    <row r="61" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A61" s="33" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B61" s="24">
         <v>3</v>
@@ -3745,10 +3766,10 @@
         <v>43928</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G61" s="19">
         <v>2</v>
@@ -3776,9 +3797,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="15.75">
+    <row r="62" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A62" s="33" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B62" s="24">
         <v>1</v>
@@ -3790,10 +3811,10 @@
         <v>43931</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G62" s="19">
         <v>1</v>
@@ -3821,9 +3842,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="15.75">
+    <row r="63" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A63" s="33" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B63" s="24">
         <v>1</v>
@@ -3864,9 +3885,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="15.75">
+    <row r="64" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A64" s="33" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B64" s="24">
         <v>1</v>
@@ -3878,10 +3899,10 @@
         <v>43931</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G64" s="19">
         <v>1</v>
@@ -3909,9 +3930,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="15.75">
+    <row r="65" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A65" s="33" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B65" s="24">
         <v>2</v>
@@ -3923,10 +3944,10 @@
         <v>43931</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G65" s="19">
         <v>2</v>
@@ -3954,9 +3975,9 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="15.75">
+    <row r="66" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A66" s="33" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B66" s="24">
         <v>2</v>
@@ -3968,10 +3989,10 @@
         <v>43931</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G66" s="19">
         <v>2.5</v>
@@ -3999,9 +4020,9 @@
         <v>2.375</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="15.75">
+    <row r="67" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A67" s="33" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B67" s="24">
         <v>2</v>
@@ -4013,10 +4034,10 @@
         <v>43931</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G67" s="19">
         <v>2</v>
@@ -4044,9 +4065,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="15.75">
+    <row r="68" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A68" s="33" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B68" s="24">
         <v>1</v>
@@ -4058,10 +4079,10 @@
         <v>43931</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G68" s="19">
         <v>1</v>
@@ -4089,9 +4110,9 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="15.75">
+    <row r="69" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A69" s="33" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B69" s="24">
         <v>1</v>
@@ -4103,10 +4124,10 @@
         <v>43931</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G69" s="19">
         <v>0.5</v>
@@ -4134,9 +4155,9 @@
         <v>0.51500000000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="15.75">
+    <row r="70" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A70" s="33" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B70" s="24">
         <v>2</v>
@@ -4148,10 +4169,10 @@
         <v>43931</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G70" s="19">
         <v>2</v>
@@ -4179,9 +4200,9 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="33" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B71" s="27">
         <v>2</v>
@@ -4193,10 +4214,10 @@
         <v>43931</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G71" s="15">
         <v>2.5</v>
@@ -4224,9 +4245,9 @@
         <v>2.375</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="33" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B72" s="24">
         <v>1</v>
@@ -4238,10 +4259,10 @@
         <v>43931</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G72" s="15">
         <v>0.5</v>
@@ -4269,9 +4290,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="30" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B73" s="24"/>
       <c r="C73" s="14"/>
@@ -4287,9 +4308,9 @@
       <c r="M73" s="8"/>
       <c r="N73" s="15"/>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="33" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B74" s="24">
         <v>2</v>
@@ -4301,7 +4322,7 @@
         <v>43931</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F74" s="11"/>
       <c r="G74" s="15">
@@ -4330,9 +4351,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="34" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B75" s="24">
         <f>SUM(B76:B84)</f>
@@ -4355,9 +4376,9 @@
       <c r="M75" s="8"/>
       <c r="N75" s="15"/>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="32" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B76" s="24">
         <v>2</v>
@@ -4369,10 +4390,10 @@
         <v>43934</v>
       </c>
       <c r="E76" s="18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G76" s="15">
         <v>1</v>
@@ -4400,9 +4421,9 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="32" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B77" s="24">
         <v>2</v>
@@ -4414,10 +4435,10 @@
         <v>43934</v>
       </c>
       <c r="E77" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G77" s="15">
         <v>0.5</v>
@@ -4445,9 +4466,9 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="32" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B78" s="24">
         <v>8</v>
@@ -4459,10 +4480,10 @@
         <v>43934</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G78" s="15">
         <v>4</v>
@@ -4490,9 +4511,9 @@
         <v>4.5199999999999996</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="15.75">
+    <row r="79" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A79" s="32" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B79" s="24">
         <v>4</v>
@@ -4504,10 +4525,10 @@
         <v>43934</v>
       </c>
       <c r="E79" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G79" s="15">
         <v>1.5</v>
@@ -4535,9 +4556,9 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="15.75">
+    <row r="80" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A80" s="32" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B80" s="24">
         <v>4</v>
@@ -4549,10 +4570,10 @@
         <v>43934</v>
       </c>
       <c r="E80" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F80" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G80" s="19">
         <v>3</v>
@@ -4580,9 +4601,9 @@
         <v>3.09</v>
       </c>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="37" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B81" s="28">
         <v>12</v>
@@ -4594,10 +4615,10 @@
         <v>43934</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G81" s="8">
         <v>6</v>
@@ -4625,9 +4646,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="37" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B82" s="28">
         <v>12</v>
@@ -4639,10 +4660,10 @@
         <v>43934</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G82" s="8">
         <v>3</v>
@@ -4670,9 +4691,9 @@
         <v>3.84</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="37" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B83" s="28">
         <v>16</v>
@@ -4684,10 +4705,10 @@
         <v>43934</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G83" s="8">
         <v>8</v>
@@ -4715,9 +4736,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="37" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B84" s="28">
         <v>8</v>
@@ -4729,10 +4750,10 @@
         <v>43934</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G84" s="8">
         <v>4</v>
@@ -4760,9 +4781,9 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="36" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B85" s="22"/>
       <c r="C85" s="21"/>
@@ -4778,9 +4799,9 @@
       <c r="M85" s="8"/>
       <c r="N85" s="15"/>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="33" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B86" s="24">
         <v>3</v>
@@ -4792,10 +4813,10 @@
         <v>43936</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G86" s="8">
         <v>2</v>
@@ -4823,9 +4844,9 @@
         <v>2.16</v>
       </c>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="33" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B87" s="24">
         <v>3</v>
@@ -4837,10 +4858,10 @@
         <v>43936</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G87" s="8">
         <v>1</v>
@@ -4868,9 +4889,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="33" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B88" s="24">
         <v>3</v>
@@ -4882,10 +4903,10 @@
         <v>43936</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G88" s="8">
         <v>1.5</v>
@@ -4913,9 +4934,9 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="89" spans="1:14" ht="13.15" customHeight="1">
+    <row r="89" spans="1:14" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="33" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B89" s="24">
         <v>3</v>
@@ -4927,10 +4948,10 @@
         <v>43936</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G89" s="8">
         <v>1.5</v>
@@ -4958,9 +4979,9 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="13.15" customHeight="1">
+    <row r="90" spans="1:14" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="33" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B90" s="24">
         <v>2</v>
@@ -4972,10 +4993,10 @@
         <v>43936</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F90" s="33" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G90" s="8">
         <v>2</v>
@@ -5003,9 +5024,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="36" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B91" s="22">
         <v>1</v>
@@ -5027,9 +5048,9 @@
       <c r="M91" s="8"/>
       <c r="N91" s="15"/>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="37" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B92" s="22">
         <v>1</v>
@@ -5041,10 +5062,10 @@
         <v>43938</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G92" s="8">
         <v>1</v>
@@ -5072,9 +5093,9 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="93" spans="1:14">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="38" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B93" s="22"/>
       <c r="C93" s="21"/>
@@ -5090,9 +5111,9 @@
       <c r="M93" s="8"/>
       <c r="N93" s="15"/>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="35" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B94" s="22">
         <v>2</v>
@@ -5104,10 +5125,10 @@
         <v>43938</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G94" s="8">
         <v>2</v>
@@ -5135,9 +5156,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="36" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B95" s="22">
         <f>SUM(B96:B102)</f>
@@ -5160,9 +5181,9 @@
       <c r="M95" s="8"/>
       <c r="N95" s="15"/>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="37" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B96" s="22">
         <v>4</v>
@@ -5174,10 +5195,10 @@
         <v>43944</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F96" s="35" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G96" s="8">
         <v>2</v>
@@ -5205,9 +5226,9 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="37" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B97" s="22">
         <v>8</v>
@@ -5219,10 +5240,10 @@
         <v>43944</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F97" s="35" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G97" s="8">
         <v>3</v>
@@ -5250,9 +5271,9 @@
         <v>2.94</v>
       </c>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="37" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B98" s="22">
         <v>4</v>
@@ -5264,10 +5285,10 @@
         <v>43944</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F98" s="35" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G98" s="8">
         <v>3</v>
@@ -5295,9 +5316,9 @@
         <v>2.94</v>
       </c>
     </row>
-    <row r="99" spans="1:14">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="37" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B99" s="22">
         <v>6</v>
@@ -5309,10 +5330,10 @@
         <v>43944</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F99" s="35" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G99" s="8">
         <v>0</v>
@@ -5340,9 +5361,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="37" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B100" s="22">
         <v>3</v>
@@ -5354,10 +5375,10 @@
         <v>43944</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F100" s="35" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G100" s="8">
         <v>1</v>
@@ -5385,9 +5406,9 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="101" spans="1:14">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="37" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B101" s="22">
         <v>6</v>
@@ -5399,10 +5420,10 @@
         <v>43944</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F101" s="35" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G101" s="8">
         <v>3</v>
@@ -5430,9 +5451,9 @@
         <v>2.94</v>
       </c>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="37" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B102" s="22">
         <v>4</v>
@@ -5444,10 +5465,10 @@
         <v>43944</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F102" s="35" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G102" s="8">
         <v>0</v>
@@ -5475,9 +5496,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="36" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B103" s="6">
         <v>4</v>
@@ -5499,9 +5520,9 @@
       <c r="M103" s="8"/>
       <c r="N103" s="15"/>
     </row>
-    <row r="104" spans="1:14">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="37" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B104" s="6">
         <v>1</v>
@@ -5513,10 +5534,10 @@
         <v>43944</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G104" s="8">
         <v>1</v>
@@ -5544,9 +5565,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:14">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="37" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B105" s="6">
         <v>1</v>
@@ -5558,10 +5579,10 @@
         <v>43944</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G105" s="8">
         <v>1</v>
@@ -5589,9 +5610,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:14">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="37" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B106" s="6">
         <v>1</v>
@@ -5603,10 +5624,10 @@
         <v>43944</v>
       </c>
       <c r="E106" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G106" s="8">
         <v>1</v>
@@ -5634,9 +5655,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="37" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B107" s="6">
         <v>1</v>
@@ -5648,10 +5669,10 @@
         <v>43944</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G107" s="8">
         <v>1</v>
@@ -5679,9 +5700,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:14">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="36" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B108" s="6"/>
       <c r="C108" s="21"/>
@@ -5697,9 +5718,9 @@
       <c r="M108" s="8"/>
       <c r="N108" s="15"/>
     </row>
-    <row r="109" spans="1:14">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="35" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B109" s="6">
         <v>1</v>
@@ -5711,10 +5732,10 @@
         <v>43944</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G109" s="8">
         <v>1</v>
@@ -5742,9 +5763,9 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="110" spans="1:14">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="35" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B110" s="6">
         <v>1</v>
@@ -5756,10 +5777,10 @@
         <v>43944</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G110" s="8">
         <v>1</v>
@@ -5787,9 +5808,9 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="111" spans="1:14">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="35" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B111" s="6">
         <v>1</v>
@@ -5801,10 +5822,10 @@
         <v>43944</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G111" s="8">
         <v>1</v>
@@ -5832,9 +5853,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:14">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="36" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B112" s="22">
         <v>1</v>
@@ -5856,9 +5877,9 @@
       <c r="M112" s="8"/>
       <c r="N112" s="15"/>
     </row>
-    <row r="113" spans="1:14">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="37" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B113" s="6">
         <v>1</v>
@@ -5870,12 +5891,14 @@
         <v>43945</v>
       </c>
       <c r="E113" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F113" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="G113" s="8"/>
+        <v>161</v>
+      </c>
+      <c r="G113" s="8">
+        <v>0</v>
+      </c>
       <c r="H113" s="8"/>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
@@ -5884,9 +5907,9 @@
       <c r="M113" s="8"/>
       <c r="N113" s="15"/>
     </row>
-    <row r="114" spans="1:14">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="37" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B114" s="6">
         <v>1</v>
@@ -5898,12 +5921,14 @@
         <v>43945</v>
       </c>
       <c r="E114" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F114" s="37" t="s">
-        <v>164</v>
-      </c>
-      <c r="G114" s="8"/>
+        <v>162</v>
+      </c>
+      <c r="G114" s="8">
+        <v>0</v>
+      </c>
       <c r="H114" s="8"/>
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
@@ -5912,9 +5937,9 @@
       <c r="M114" s="8"/>
       <c r="N114" s="15"/>
     </row>
-    <row r="115" spans="1:14">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="37" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B115" s="6">
         <v>1</v>
@@ -5926,12 +5951,14 @@
         <v>43945</v>
       </c>
       <c r="E115" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F115" s="37" t="s">
-        <v>165</v>
-      </c>
-      <c r="G115" s="8"/>
+        <v>163</v>
+      </c>
+      <c r="G115" s="8">
+        <v>0</v>
+      </c>
       <c r="H115" s="8"/>
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
@@ -5940,9 +5967,9 @@
       <c r="M115" s="8"/>
       <c r="N115" s="15"/>
     </row>
-    <row r="116" spans="1:14">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="37" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B116" s="6">
         <v>1</v>
@@ -5954,12 +5981,14 @@
         <v>43945</v>
       </c>
       <c r="E116" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F116" s="37" t="s">
-        <v>166</v>
-      </c>
-      <c r="G116" s="8"/>
+        <v>164</v>
+      </c>
+      <c r="G116" s="8">
+        <v>0</v>
+      </c>
       <c r="H116" s="8"/>
       <c r="I116" s="8"/>
       <c r="J116" s="8"/>
@@ -5968,9 +5997,9 @@
       <c r="M116" s="8"/>
       <c r="N116" s="15"/>
     </row>
-    <row r="117" spans="1:14">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="37" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B117" s="6">
         <v>1</v>
@@ -5982,12 +6011,14 @@
         <v>43945</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F117" s="37" t="s">
-        <v>167</v>
-      </c>
-      <c r="G117" s="8"/>
+        <v>165</v>
+      </c>
+      <c r="G117" s="8">
+        <v>0</v>
+      </c>
       <c r="H117" s="8"/>
       <c r="I117" s="8"/>
       <c r="J117" s="8"/>
@@ -5996,9 +6027,9 @@
       <c r="M117" s="8"/>
       <c r="N117" s="15"/>
     </row>
-    <row r="118" spans="1:14">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" s="37" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B118" s="6">
         <v>2</v>
@@ -6010,12 +6041,14 @@
         <v>43945</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F118" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="G118" s="8"/>
+        <v>166</v>
+      </c>
+      <c r="G118" s="8">
+        <v>0</v>
+      </c>
       <c r="H118" s="8"/>
       <c r="I118" s="8"/>
       <c r="J118" s="8"/>
@@ -6024,10 +6057,77 @@
       <c r="M118" s="8"/>
       <c r="N118" s="15"/>
     </row>
-    <row r="119" spans="1:14">
-      <c r="A119" s="40"/>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A119" s="40" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A120" s="38" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A121" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="B121" s="2">
+        <v>8</v>
+      </c>
+      <c r="C121" s="4">
+        <v>43945</v>
+      </c>
+      <c r="D121" s="4">
+        <v>43959</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A122" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="B122" s="2">
+        <v>4</v>
+      </c>
+      <c r="C122" s="4">
+        <v>43945</v>
+      </c>
+      <c r="D122" s="4">
+        <v>43959</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A123" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="B123" s="2">
+        <v>3</v>
+      </c>
+      <c r="C123" s="4">
+        <v>43945</v>
+      </c>
+      <c r="D123" s="4">
+        <v>43959</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A124" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="B124" s="2">
+        <v>6</v>
+      </c>
+      <c r="C124" s="4">
+        <v>43945</v>
+      </c>
+      <c r="D124" s="4">
+        <v>43959</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="E1:E120" xr:uid="{455A940B-1216-4E33-BD0B-861B7C88521D}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/实验8：工作量估计与统计分析/工作量统计表格.xlsx
+++ b/实验8：工作量估计与统计分析/工作量统计表格.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20358"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20359"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="578" documentId="102_{0377CD5D-524A-49FD-8A41-DE9F0AFD7BEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{5B3E19F7-207E-455E-8E50-2057CA927F64}"/>
+  <xr:revisionPtr revIDLastSave="580" documentId="102_{0377CD5D-524A-49FD-8A41-DE9F0AFD7BEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{651BD6CD-3846-43A5-AABF-B06F627ABCDD}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="171">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -639,26 +639,6 @@
   </si>
   <si>
     <t>开发工作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>维护端开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>storage adapter开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信前端开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logic adapte 开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张延钊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1240,16 +1220,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N124"/>
+  <dimension ref="A1:N120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E122" sqref="E122"/>
+      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C121" sqref="C121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" style="29" customWidth="1"/>
+    <col min="1" max="1" width="29.77734375" style="29" customWidth="1"/>
     <col min="2" max="2" width="14.109375" style="2" customWidth="1"/>
     <col min="3" max="4" width="14.109375" style="4" customWidth="1"/>
     <col min="5" max="5" width="24" style="1" customWidth="1"/>
@@ -6067,65 +6047,6 @@
         <v>170</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A121" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="B121" s="2">
-        <v>8</v>
-      </c>
-      <c r="C121" s="4">
-        <v>43945</v>
-      </c>
-      <c r="D121" s="4">
-        <v>43959</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A122" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="B122" s="2">
-        <v>4</v>
-      </c>
-      <c r="C122" s="4">
-        <v>43945</v>
-      </c>
-      <c r="D122" s="4">
-        <v>43959</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A123" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="B123" s="2">
-        <v>3</v>
-      </c>
-      <c r="C123" s="4">
-        <v>43945</v>
-      </c>
-      <c r="D123" s="4">
-        <v>43959</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A124" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="B124" s="2">
-        <v>6</v>
-      </c>
-      <c r="C124" s="4">
-        <v>43945</v>
-      </c>
-      <c r="D124" s="4">
-        <v>43959</v>
-      </c>
-    </row>
   </sheetData>
   <autoFilter ref="E1:E120" xr:uid="{455A940B-1216-4E33-BD0B-861B7C88521D}"/>
   <phoneticPr fontId="1" type="noConversion"/>
